--- a/docs/TestCases.xlsx
+++ b/docs/TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="255" windowWidth="27795" windowHeight="12435" activeTab="4"/>
+    <workbookView xWindow="480" yWindow="315" windowWidth="27795" windowHeight="12375" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="SignUpAPI" sheetId="1" r:id="rId1"/>
@@ -13,27 +13,30 @@
     <sheet name="CheckIfUserExists API" sheetId="6" r:id="rId4"/>
     <sheet name="Reset PasswordCode API" sheetId="7" r:id="rId5"/>
     <sheet name="Lists Used" sheetId="2" r:id="rId6"/>
+    <sheet name="Member_Info" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Browsers">'Lists Used'!$A$3:$A$5</definedName>
     <definedName name="DoneStatus" localSheetId="3">'CheckIfUserExists API'!$S$9:$S$10</definedName>
     <definedName name="DoneStatus" localSheetId="2">'Login API'!$S$9:$S$10</definedName>
+    <definedName name="DoneStatus" localSheetId="6">Member_Info!$S$9:$S$10</definedName>
     <definedName name="DoneStatus" localSheetId="4">'Reset PasswordCode API'!$S$9:$S$10</definedName>
     <definedName name="DoneStatus" localSheetId="1">'User Activation API'!$S$9:$S$10</definedName>
     <definedName name="DoneStatus">SignUpAPI!$S$9:$S$10</definedName>
     <definedName name="ErrorStatus">'Lists Used'!$A$9:$A$10</definedName>
     <definedName name="OkNgStatus" localSheetId="3">'CheckIfUserExists API'!$S$11:$S$12</definedName>
     <definedName name="OkNgStatus" localSheetId="2">'Login API'!$S$11:$S$12</definedName>
+    <definedName name="OkNgStatus" localSheetId="6">Member_Info!$S$11:$S$12</definedName>
     <definedName name="OkNgStatus" localSheetId="4">'Reset PasswordCode API'!$S$11:$S$12</definedName>
     <definedName name="OkNgStatus" localSheetId="1">'User Activation API'!$S$11:$S$12</definedName>
     <definedName name="OkNgStatus">SignUpAPI!$S$11:$S$12</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="79">
   <si>
     <t>No.</t>
     <phoneticPr fontId="5"/>
@@ -345,6 +348,38 @@
 reset_code = correct
 user = found
 reset_code != real reset_code</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>API url:/api/authentication/member_info</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>:token</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If token is not present</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>If token is wrong</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if token is present</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>some server problem</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>500 Internal Server Error</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>200: Result is obtained</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -723,7 +758,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -793,6 +828,9 @@
     <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -814,11 +852,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -859,18 +939,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -879,36 +947,6 @@
     </xf>
     <xf numFmtId="177" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -926,7 +964,63 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="66">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2285,6 +2379,87 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1428611</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6200775" y="4924425"/>
+          <a:ext cx="1914525" cy="1114286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>390525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1438144</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6219824" y="3190875"/>
+          <a:ext cx="1952625" cy="1047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2574,7 +2749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -2593,102 +2768,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
@@ -2711,12 +2886,12 @@
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
-      <c r="S5" s="32" t="s">
+      <c r="S5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="34"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="49"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="13"/>
@@ -2737,10 +2912,10 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="37"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="52"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="13"/>
@@ -2761,10 +2936,10 @@
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="40"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="55"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="13"/>
@@ -2788,12 +2963,12 @@
       <c r="S8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="41">
+      <c r="T8" s="56">
         <f>COUNTA(B15:B200)</f>
         <v>7</v>
       </c>
-      <c r="U8" s="42"/>
-      <c r="V8" s="43"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="58"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
@@ -2817,12 +2992,12 @@
       <c r="S9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="41">
+      <c r="T9" s="56">
         <f>COUNTIF(B15:B94,"Done")</f>
         <v>7</v>
       </c>
-      <c r="U9" s="42"/>
-      <c r="V9" s="43"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="58"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
@@ -2846,12 +3021,12 @@
       <c r="S10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="T10" s="41">
+      <c r="T10" s="56">
         <f>COUNTIF(B15:B94, "NotDone")</f>
         <v>0</v>
       </c>
-      <c r="U10" s="42"/>
-      <c r="V10" s="43"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="58"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
@@ -2875,12 +3050,12 @@
       <c r="S11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="T11" s="44">
+      <c r="T11" s="59">
         <f>COUNTIF(N15:N99,"OK")</f>
         <v>7</v>
       </c>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
@@ -2904,12 +3079,12 @@
       <c r="S12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="T12" s="44">
+      <c r="T12" s="59">
         <f>COUNTIF(N15:N99,"NG")</f>
         <v>0</v>
       </c>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
@@ -2918,64 +3093,64 @@
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56" t="s">
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57" t="s">
+      <c r="I13" s="41"/>
+      <c r="J13" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="58"/>
-      <c r="L13" s="59"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="44"/>
       <c r="M13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="60" t="s">
+      <c r="N13" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="O13" s="61"/>
-      <c r="P13" s="57" t="s">
+      <c r="O13" s="46"/>
+      <c r="P13" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="56" t="s">
+      <c r="Q13" s="44"/>
+      <c r="R13" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="51"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="62"/>
     </row>
     <row r="15" spans="1:22" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20">
@@ -2984,36 +3159,36 @@
       <c r="B15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29" t="s">
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="31"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="32"/>
       <c r="L15" s="31"/>
       <c r="M15" s="22">
         <v>42454</v>
       </c>
-      <c r="N15" s="45" t="s">
+      <c r="N15" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="46"/>
-      <c r="P15" s="47" t="s">
+      <c r="O15" s="34"/>
+      <c r="P15" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="25"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="26"/>
     </row>
     <row r="16" spans="1:22" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20">
@@ -3022,38 +3197,38 @@
       <c r="B16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30" t="s">
         <v>28</v>
       </c>
       <c r="I16" s="31"/>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="30"/>
+      <c r="K16" s="32"/>
       <c r="L16" s="31"/>
       <c r="M16" s="22">
         <v>42454</v>
       </c>
-      <c r="N16" s="45" t="s">
+      <c r="N16" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O16" s="46"/>
-      <c r="P16" s="47" t="s">
+      <c r="O16" s="34"/>
+      <c r="P16" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="25"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="26"/>
     </row>
     <row r="17" spans="1:22" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20">
@@ -3062,38 +3237,38 @@
       <c r="B17" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30" t="s">
         <v>28</v>
       </c>
       <c r="I17" s="31"/>
-      <c r="J17" s="29" t="s">
+      <c r="J17" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K17" s="30"/>
+      <c r="K17" s="32"/>
       <c r="L17" s="31"/>
       <c r="M17" s="22">
         <v>42454</v>
       </c>
-      <c r="N17" s="45" t="s">
+      <c r="N17" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O17" s="46"/>
-      <c r="P17" s="47" t="s">
+      <c r="O17" s="34"/>
+      <c r="P17" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="25"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="26"/>
     </row>
     <row r="18" spans="1:22" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20">
@@ -3102,38 +3277,38 @@
       <c r="B18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30" t="s">
         <v>28</v>
       </c>
       <c r="I18" s="31"/>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="30"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="31"/>
       <c r="M18" s="22">
         <v>42454</v>
       </c>
-      <c r="N18" s="45" t="s">
+      <c r="N18" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O18" s="46"/>
-      <c r="P18" s="47" t="s">
+      <c r="O18" s="34"/>
+      <c r="P18" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="25"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="26"/>
     </row>
     <row r="19" spans="1:22" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="20">
@@ -3142,38 +3317,38 @@
       <c r="B19" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29" t="s">
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="31"/>
-      <c r="J19" s="29" t="s">
+      <c r="J19" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="K19" s="30"/>
+      <c r="K19" s="32"/>
       <c r="L19" s="31"/>
       <c r="M19" s="22">
         <v>42454</v>
       </c>
-      <c r="N19" s="45" t="s">
+      <c r="N19" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O19" s="46"/>
-      <c r="P19" s="47" t="s">
+      <c r="O19" s="34"/>
+      <c r="P19" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="25"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="26"/>
     </row>
     <row r="20" spans="1:22" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20">
@@ -3182,36 +3357,36 @@
       <c r="B20" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30" t="s">
         <v>28</v>
       </c>
       <c r="I20" s="31"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="32"/>
       <c r="L20" s="31"/>
       <c r="M20" s="22">
         <v>42454</v>
       </c>
-      <c r="N20" s="45" t="s">
+      <c r="N20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O20" s="46"/>
-      <c r="P20" s="47" t="s">
+      <c r="O20" s="34"/>
+      <c r="P20" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="25"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="26"/>
     </row>
     <row r="21" spans="1:22" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="20">
@@ -3220,65 +3395,56 @@
       <c r="B21" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30" t="s">
         <v>28</v>
       </c>
       <c r="I21" s="31"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="32"/>
       <c r="L21" s="31"/>
       <c r="M21" s="22">
         <v>42454</v>
       </c>
-      <c r="N21" s="45" t="s">
+      <c r="N21" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O21" s="46"/>
-      <c r="P21" s="47" t="s">
+      <c r="O21" s="34"/>
+      <c r="P21" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="25"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="R21:V21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R19:V19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:V20"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A1:V3"/>
-    <mergeCell ref="A4:V4"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:V13"/>
-    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="R17:V17"/>
+    <mergeCell ref="S5:V7"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="A14:V14"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
     <mergeCell ref="R18:V18"/>
     <mergeCell ref="R15:V15"/>
     <mergeCell ref="P16:Q16"/>
@@ -3292,31 +3458,40 @@
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
     <mergeCell ref="R16:V16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="R17:V17"/>
-    <mergeCell ref="S5:V7"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="A14:V14"/>
+    <mergeCell ref="A1:V3"/>
+    <mergeCell ref="A4:V4"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:V13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="R19:V19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:V20"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R21:V21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="N15">
-    <cfRule type="containsText" dxfId="57" priority="96" operator="containsText" text="NG">
+    <cfRule type="containsText" dxfId="65" priority="96" operator="containsText" text="NG">
       <formula>NOT(ISERROR(SEARCH("NG",N15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="97" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="64" priority="97" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",N15)))</formula>
     </cfRule>
     <cfRule type="iconSet" priority="98">
@@ -3337,10 +3512,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="containsText" dxfId="55" priority="33" operator="containsText" text="NG">
+    <cfRule type="containsText" dxfId="63" priority="33" operator="containsText" text="NG">
       <formula>NOT(ISERROR(SEARCH("NG",N16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="34" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="62" priority="34" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",N16)))</formula>
     </cfRule>
     <cfRule type="iconSet" priority="35">
@@ -3361,10 +3536,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="containsText" dxfId="53" priority="29" operator="containsText" text="NG">
+    <cfRule type="containsText" dxfId="61" priority="29" operator="containsText" text="NG">
       <formula>NOT(ISERROR(SEARCH("NG",N17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="30" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="60" priority="30" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",N17)))</formula>
     </cfRule>
     <cfRule type="iconSet" priority="31">
@@ -3394,10 +3569,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="containsText" dxfId="51" priority="21" operator="containsText" text="NG">
+    <cfRule type="containsText" dxfId="59" priority="21" operator="containsText" text="NG">
       <formula>NOT(ISERROR(SEARCH("NG",N18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="22" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="58" priority="22" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",N18)))</formula>
     </cfRule>
     <cfRule type="iconSet" priority="23">
@@ -3427,10 +3602,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="containsText" dxfId="49" priority="15" operator="containsText" text="NG">
+    <cfRule type="containsText" dxfId="57" priority="15" operator="containsText" text="NG">
       <formula>NOT(ISERROR(SEARCH("NG",N19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="16" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="56" priority="16" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",N19)))</formula>
     </cfRule>
     <cfRule type="iconSet" priority="17">
@@ -3460,10 +3635,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="containsText" dxfId="47" priority="9" operator="containsText" text="NG">
+    <cfRule type="containsText" dxfId="55" priority="9" operator="containsText" text="NG">
       <formula>NOT(ISERROR(SEARCH("NG",N20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="10" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="54" priority="10" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",N20)))</formula>
     </cfRule>
     <cfRule type="iconSet" priority="11">
@@ -3493,10 +3668,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="NG">
+    <cfRule type="containsText" dxfId="53" priority="3" operator="containsText" text="NG">
       <formula>NOT(ISERROR(SEARCH("NG",N21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="52" priority="4" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",N21)))</formula>
     </cfRule>
     <cfRule type="iconSet" priority="5">
@@ -3571,102 +3746,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
@@ -3689,12 +3864,12 @@
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
-      <c r="S5" s="32" t="s">
+      <c r="S5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="34"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="49"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
@@ -3717,10 +3892,10 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="37"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="52"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
@@ -3743,10 +3918,10 @@
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="40"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="55"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
@@ -3772,12 +3947,12 @@
       <c r="S8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="41">
+      <c r="T8" s="56">
         <f>COUNTA(B15:B200)</f>
         <v>7</v>
       </c>
-      <c r="U8" s="42"/>
-      <c r="V8" s="43"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="58"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
@@ -3801,12 +3976,12 @@
       <c r="S9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="41">
+      <c r="T9" s="56">
         <f>COUNTIF(B15:B94,"Done")</f>
         <v>7</v>
       </c>
-      <c r="U9" s="42"/>
-      <c r="V9" s="43"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="58"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
@@ -3830,12 +4005,12 @@
       <c r="S10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="T10" s="41">
+      <c r="T10" s="56">
         <f>COUNTIF(B15:B94, "NotDone")</f>
         <v>0</v>
       </c>
-      <c r="U10" s="42"/>
-      <c r="V10" s="43"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="58"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
@@ -3859,12 +4034,12 @@
       <c r="S11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="T11" s="44">
+      <c r="T11" s="59">
         <f>COUNTIF(N15:N99,"OK")</f>
         <v>7</v>
       </c>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
@@ -3888,12 +4063,12 @@
       <c r="S12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="T12" s="44">
+      <c r="T12" s="59">
         <f>COUNTIF(N15:N99,"NG")</f>
         <v>0</v>
       </c>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
@@ -3902,64 +4077,64 @@
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56" t="s">
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57" t="s">
+      <c r="I13" s="41"/>
+      <c r="J13" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="58"/>
-      <c r="L13" s="59"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="44"/>
       <c r="M13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="60" t="s">
+      <c r="N13" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="O13" s="61"/>
-      <c r="P13" s="57" t="s">
+      <c r="O13" s="46"/>
+      <c r="P13" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="56" t="s">
+      <c r="Q13" s="44"/>
+      <c r="R13" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="51"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="62"/>
     </row>
     <row r="15" spans="1:22" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20">
@@ -3968,36 +4143,36 @@
       <c r="B15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29" t="s">
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="31"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="32"/>
       <c r="L15" s="31"/>
       <c r="M15" s="22">
         <v>42454</v>
       </c>
-      <c r="N15" s="45" t="s">
+      <c r="N15" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O15" s="46"/>
-      <c r="P15" s="47" t="s">
+      <c r="O15" s="34"/>
+      <c r="P15" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="25"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="26"/>
     </row>
     <row r="16" spans="1:22" ht="156" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20">
@@ -4006,36 +4181,36 @@
       <c r="B16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30" t="s">
         <v>28</v>
       </c>
       <c r="I16" s="31"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="32"/>
       <c r="L16" s="31"/>
       <c r="M16" s="22">
         <v>42454</v>
       </c>
-      <c r="N16" s="45" t="s">
+      <c r="N16" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O16" s="46"/>
-      <c r="P16" s="47" t="s">
+      <c r="O16" s="34"/>
+      <c r="P16" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="25"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="26"/>
     </row>
     <row r="17" spans="1:22" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20">
@@ -4044,36 +4219,36 @@
       <c r="B17" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30" t="s">
         <v>22</v>
       </c>
       <c r="I17" s="31"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="32"/>
       <c r="L17" s="31"/>
       <c r="M17" s="22">
         <v>42454</v>
       </c>
-      <c r="N17" s="45" t="s">
+      <c r="N17" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O17" s="46"/>
-      <c r="P17" s="47" t="s">
+      <c r="O17" s="34"/>
+      <c r="P17" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="25"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="26"/>
     </row>
     <row r="18" spans="1:22" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20">
@@ -4082,36 +4257,36 @@
       <c r="B18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30" t="s">
         <v>28</v>
       </c>
       <c r="I18" s="31"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="31"/>
       <c r="M18" s="22">
         <v>42454</v>
       </c>
-      <c r="N18" s="45" t="s">
+      <c r="N18" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O18" s="46"/>
-      <c r="P18" s="47" t="s">
+      <c r="O18" s="34"/>
+      <c r="P18" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="25"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="26"/>
     </row>
     <row r="19" spans="1:22" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="20">
@@ -4120,36 +4295,36 @@
       <c r="B19" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29" t="s">
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="31"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="32"/>
       <c r="L19" s="31"/>
       <c r="M19" s="22">
         <v>42454</v>
       </c>
-      <c r="N19" s="45" t="s">
+      <c r="N19" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O19" s="46"/>
-      <c r="P19" s="47" t="s">
+      <c r="O19" s="34"/>
+      <c r="P19" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="25"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="26"/>
     </row>
     <row r="20" spans="1:22" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="20">
@@ -4158,36 +4333,36 @@
       <c r="B20" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29" t="s">
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30" t="s">
         <v>28</v>
       </c>
       <c r="I20" s="31"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="32"/>
       <c r="L20" s="31"/>
       <c r="M20" s="22">
         <v>42454</v>
       </c>
-      <c r="N20" s="45" t="s">
+      <c r="N20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O20" s="46"/>
-      <c r="P20" s="47" t="s">
+      <c r="O20" s="34"/>
+      <c r="P20" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="24"/>
-      <c r="V20" s="25"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="25"/>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="26"/>
     </row>
     <row r="21" spans="1:22" ht="90" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="20">
@@ -4196,82 +4371,45 @@
       <c r="B21" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30" t="s">
         <v>28</v>
       </c>
       <c r="I21" s="31"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="32"/>
       <c r="L21" s="31"/>
       <c r="M21" s="22">
         <v>42454</v>
       </c>
-      <c r="N21" s="45" t="s">
+      <c r="N21" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O21" s="46"/>
-      <c r="P21" s="47" t="s">
+      <c r="O21" s="34"/>
+      <c r="P21" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="25"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="25"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="R21:V21"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="R20:V20"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:V19"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:V18"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:V17"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:V16"/>
-    <mergeCell ref="A14:V14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:V15"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="A1:V3"/>
+    <mergeCell ref="A4:V4"/>
+    <mergeCell ref="S5:V7"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="T9:V9"/>
     <mergeCell ref="T11:V11"/>
     <mergeCell ref="T12:V12"/>
     <mergeCell ref="C13:G13"/>
@@ -4280,19 +4418,56 @@
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="P13:Q13"/>
     <mergeCell ref="R13:V13"/>
-    <mergeCell ref="A1:V3"/>
-    <mergeCell ref="A4:V4"/>
-    <mergeCell ref="S5:V7"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="A14:V14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:V15"/>
+    <mergeCell ref="R17:V17"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:V16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R19:V19"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:V18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="R21:V21"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="R20:V20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="P21:Q21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="N15">
-    <cfRule type="containsText" dxfId="43" priority="30" operator="containsText" text="NG">
+    <cfRule type="containsText" dxfId="51" priority="30" operator="containsText" text="NG">
       <formula>NOT(ISERROR(SEARCH("NG",N15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="31" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="50" priority="31" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",N15)))</formula>
     </cfRule>
     <cfRule type="iconSet" priority="32">
@@ -4313,10 +4488,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="containsText" dxfId="41" priority="26" operator="containsText" text="NG">
+    <cfRule type="containsText" dxfId="49" priority="26" operator="containsText" text="NG">
       <formula>NOT(ISERROR(SEARCH("NG",N16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="27" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="48" priority="27" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",N16)))</formula>
     </cfRule>
     <cfRule type="iconSet" priority="28">
@@ -4337,10 +4512,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="containsText" dxfId="39" priority="22" operator="containsText" text="NG">
+    <cfRule type="containsText" dxfId="47" priority="22" operator="containsText" text="NG">
       <formula>NOT(ISERROR(SEARCH("NG",N17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="23" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="46" priority="23" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",N17)))</formula>
     </cfRule>
     <cfRule type="iconSet" priority="24">
@@ -4370,10 +4545,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="containsText" dxfId="37" priority="17" operator="containsText" text="NG">
+    <cfRule type="containsText" dxfId="45" priority="17" operator="containsText" text="NG">
       <formula>NOT(ISERROR(SEARCH("NG",N18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="18" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="44" priority="18" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",N18)))</formula>
     </cfRule>
     <cfRule type="iconSet" priority="19">
@@ -4403,10 +4578,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="containsText" dxfId="35" priority="12" operator="containsText" text="NG">
+    <cfRule type="containsText" dxfId="43" priority="12" operator="containsText" text="NG">
       <formula>NOT(ISERROR(SEARCH("NG",N19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="42" priority="13" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",N19)))</formula>
     </cfRule>
     <cfRule type="iconSet" priority="14">
@@ -4436,10 +4611,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="containsText" dxfId="33" priority="7" operator="containsText" text="NG">
+    <cfRule type="containsText" dxfId="41" priority="7" operator="containsText" text="NG">
       <formula>NOT(ISERROR(SEARCH("NG",N20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="8" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="40" priority="8" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",N20)))</formula>
     </cfRule>
     <cfRule type="iconSet" priority="9">
@@ -4469,10 +4644,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21">
-    <cfRule type="containsText" dxfId="31" priority="2" operator="containsText" text="NG">
+    <cfRule type="containsText" dxfId="39" priority="2" operator="containsText" text="NG">
       <formula>NOT(ISERROR(SEARCH("NG",N21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="38" priority="3" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",N21)))</formula>
     </cfRule>
     <cfRule type="iconSet" priority="4">
@@ -4528,8 +4703,8 @@
   </sheetPr>
   <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18:L18"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17:Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
@@ -4547,102 +4722,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
     </row>
     <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
     </row>
     <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
@@ -4665,12 +4840,12 @@
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
-      <c r="S5" s="32" t="s">
+      <c r="S5" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="34"/>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="49"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
@@ -4693,10 +4868,10 @@
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="37"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="52"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
@@ -4719,10 +4894,10 @@
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="40"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="55"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
@@ -4748,12 +4923,12 @@
       <c r="S8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="T8" s="41">
+      <c r="T8" s="56">
         <f>COUNTA(B15:B189)</f>
         <v>5</v>
       </c>
-      <c r="U8" s="42"/>
-      <c r="V8" s="43"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="58"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="13"/>
@@ -4777,12 +4952,12 @@
       <c r="S9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="T9" s="41">
+      <c r="T9" s="56">
         <f>COUNTIF(B15:B83,"Done")</f>
         <v>5</v>
       </c>
-      <c r="U9" s="42"/>
-      <c r="V9" s="43"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="58"/>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="13"/>
@@ -4806,12 +4981,12 @@
       <c r="S10" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="T10" s="41">
+      <c r="T10" s="56">
         <f>COUNTIF(B15:B83, "NotDone")</f>
         <v>0</v>
       </c>
-      <c r="U10" s="42"/>
-      <c r="V10" s="43"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="58"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
@@ -4835,12 +5010,12 @@
       <c r="S11" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="T11" s="44">
+      <c r="T11" s="59">
         <f>COUNTIF(N15:N88,"OK")</f>
         <v>5</v>
       </c>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
@@ -4864,12 +5039,12 @@
       <c r="S12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="T12" s="44">
+      <c r="T12" s="59">
         <f>COUNTIF(N15:N88,"NG")</f>
         <v>0</v>
       </c>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
@@ -4878,64 +5053,64 @@
       <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56" t="s">
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57" t="s">
+      <c r="I13" s="41"/>
+      <c r="J13" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="58"/>
-      <c r="L13" s="59"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="44"/>
       <c r="M13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N13" s="60" t="s">
+      <c r="N13" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="O13" s="61"/>
-      <c r="P13" s="57" t="s">
+      <c r="O13" s="46"/>
+      <c r="P13" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="56" t="s">
+      <c r="Q13" s="44"/>
+      <c r="R13" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="51"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="62"/>
     </row>
     <row r="15" spans="1:22" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20">
@@ -4944,36 +5119,36 @@
       <c r="B15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29" t="s">
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30" t="s">
         <v>28</v>
       </c>
       <c r="I15" s="31"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="32"/>
       <c r="L15" s="31"/>
       <c r="M15" s="22">
         <v>42454</v>
       </c>
-      <c r="N15" s="45" t="s">
+      <c r="N15" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="46"/>
-      <c r="P15" s="47" t="s">
+      <c r="O15" s="34"/>
+      <c r="P15" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="25"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="26"/>
     </row>
     <row r="16" spans="1:22" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="20">
@@ -4982,36 +5157,36 @@
       <c r="B16" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29" t="s">
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30" t="s">
         <v>28</v>
       </c>
       <c r="I16" s="31"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="32"/>
       <c r="L16" s="31"/>
       <c r="M16" s="22">
         <v>42454</v>
       </c>
-      <c r="N16" s="45" t="s">
+      <c r="N16" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O16" s="46"/>
-      <c r="P16" s="47" t="s">
+      <c r="O16" s="34"/>
+      <c r="P16" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="25"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="26"/>
     </row>
     <row r="17" spans="1:22" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="20">
@@ -5020,36 +5195,36 @@
       <c r="B17" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30" t="s">
         <v>28</v>
       </c>
       <c r="I17" s="31"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="32"/>
       <c r="L17" s="31"/>
       <c r="M17" s="22">
         <v>42454</v>
       </c>
-      <c r="N17" s="45" t="s">
+      <c r="N17" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O17" s="46"/>
-      <c r="P17" s="47" t="s">
+      <c r="O17" s="34"/>
+      <c r="P17" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="25"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="26"/>
     </row>
     <row r="18" spans="1:22" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="20">
@@ -5058,36 +5233,36 @@
       <c r="B18" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29" t="s">
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30" t="s">
         <v>28</v>
       </c>
       <c r="I18" s="31"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="32"/>
       <c r="L18" s="31"/>
       <c r="M18" s="22">
         <v>42454</v>
       </c>
-      <c r="N18" s="45" t="s">
+      <c r="N18" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O18" s="46"/>
-      <c r="P18" s="47" t="s">
+      <c r="O18" s="34"/>
+      <c r="P18" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="25"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="26"/>
     </row>
     <row r="19" spans="1:22" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="20">
@@ -5096,36 +5271,2423 @@
       <c r="B19" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29" t="s">
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30" t="s">
         <v>28</v>
       </c>
       <c r="I19" s="31"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="32"/>
       <c r="L19" s="31"/>
       <c r="M19" s="22">
         <v>42454</v>
       </c>
-      <c r="N19" s="45" t="s">
+      <c r="N19" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="O19" s="46"/>
-      <c r="P19" s="47" t="s">
+      <c r="O19" s="34"/>
+      <c r="P19" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="25"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="A1:V3"/>
+    <mergeCell ref="A4:V4"/>
+    <mergeCell ref="S5:V7"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:V13"/>
+    <mergeCell ref="A14:V14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:V15"/>
+    <mergeCell ref="R17:V17"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:V16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R19:V19"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:V18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="N15">
+    <cfRule type="containsText" dxfId="37" priority="62" operator="containsText" text="NG">
+      <formula>NOT(ISERROR(SEARCH("NG",N15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="63" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",N15)))</formula>
+    </cfRule>
+    <cfRule type="iconSet" priority="64">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="iconSet" priority="65">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="containsText" dxfId="35" priority="29" operator="containsText" text="NG">
+      <formula>NOT(ISERROR(SEARCH("NG",N16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="30" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",N16)))</formula>
+    </cfRule>
+    <cfRule type="iconSet" priority="31">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="iconSet" priority="32">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="containsText" dxfId="33" priority="25" operator="containsText" text="NG">
+      <formula>NOT(ISERROR(SEARCH("NG",N17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="26" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",N17)))</formula>
+    </cfRule>
+    <cfRule type="iconSet" priority="27">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="iconSet" priority="28">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18">
+    <cfRule type="containsText" dxfId="31" priority="21" operator="containsText" text="NG">
+      <formula>NOT(ISERROR(SEARCH("NG",N18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="22" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",N18)))</formula>
+    </cfRule>
+    <cfRule type="iconSet" priority="23">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="iconSet" priority="24">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="containsText" dxfId="29" priority="17" operator="containsText" text="NG">
+      <formula>NOT(ISERROR(SEARCH("NG",N19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="18" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",N19)))</formula>
+    </cfRule>
+    <cfRule type="iconSet" priority="19">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="iconSet" priority="20">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B15:B19">
+      <formula1>DoneStatus</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N15:N19">
+      <formula1>OkNgStatus</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P15:P19">
+      <formula1>Browsers</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H19">
+      <formula1>ErrorStatus</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:V18"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="17" width="9" style="3"/>
+    <col min="18" max="18" width="7.375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="14.25" style="3" customWidth="1"/>
+    <col min="20" max="22" width="9" style="3"/>
+    <col min="23" max="23" width="2.375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="11" style="3" customWidth="1"/>
+    <col min="25" max="25" width="3.5" style="3" customWidth="1"/>
+    <col min="26" max="26" width="4.625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="4.375" style="3" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="49"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="52"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="55"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="56">
+        <f>COUNTA(B15:B188)</f>
+        <v>4</v>
+      </c>
+      <c r="U8" s="57"/>
+      <c r="V8" s="58"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T9" s="56">
+        <f>COUNTIF(B15:B82,"Done")</f>
+        <v>4</v>
+      </c>
+      <c r="U9" s="57"/>
+      <c r="V9" s="58"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" s="56">
+        <f>COUNTIF(B15:B82, "NotDone")</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="57"/>
+      <c r="V10" s="58"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" s="59">
+        <f>COUNTIF(N15:N87,"OK")</f>
+        <v>4</v>
+      </c>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T12" s="59">
+        <f>COUNTIF(N15:N87,"NG")</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="43"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="46"/>
+      <c r="P13" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A14" s="60"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="62"/>
+    </row>
+    <row r="15" spans="1:22" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="20">
+        <v>1</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="22">
+        <v>42454</v>
+      </c>
+      <c r="N15" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="34"/>
+      <c r="P15" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="26"/>
+    </row>
+    <row r="16" spans="1:22" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="20">
+        <v>2</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="22">
+        <v>42454</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="34"/>
+      <c r="P16" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="26"/>
+    </row>
+    <row r="17" spans="1:22" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="20">
+        <v>3</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="22">
+        <v>42454</v>
+      </c>
+      <c r="N17" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="34"/>
+      <c r="P17" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="26"/>
+    </row>
+    <row r="18" spans="1:22" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20">
+        <v>4</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="22">
+        <v>42454</v>
+      </c>
+      <c r="N18" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="34"/>
+      <c r="P18" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="39">
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="A1:V3"/>
+    <mergeCell ref="A4:V4"/>
+    <mergeCell ref="S5:V7"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:V13"/>
+    <mergeCell ref="R16:V16"/>
+    <mergeCell ref="A14:V14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:V15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R18:V18"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:V17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="N15">
+    <cfRule type="containsText" dxfId="27" priority="18" operator="containsText" text="NG">
+      <formula>NOT(ISERROR(SEARCH("NG",N15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",N15)))</formula>
+    </cfRule>
+    <cfRule type="iconSet" priority="20">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="iconSet" priority="21">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="containsText" dxfId="25" priority="14" operator="containsText" text="NG">
+      <formula>NOT(ISERROR(SEARCH("NG",N16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="15" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",N16)))</formula>
+    </cfRule>
+    <cfRule type="iconSet" priority="16">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="containsText" dxfId="23" priority="10" operator="containsText" text="NG">
+      <formula>NOT(ISERROR(SEARCH("NG",N17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="11" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",N17)))</formula>
+    </cfRule>
+    <cfRule type="iconSet" priority="12">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18">
+    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="NG">
+      <formula>NOT(ISERROR(SEARCH("NG",N18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",N18)))</formula>
+    </cfRule>
+    <cfRule type="iconSet" priority="8">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="iconSet" priority="9">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B17">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H18">
+      <formula1>ErrorStatus</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P15:P18">
+      <formula1>Browsers</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N15:N18">
+      <formula1>OkNgStatus</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B15:B18">
+      <formula1>DoneStatus</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:V19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19:I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="17" width="9" style="3"/>
+    <col min="18" max="18" width="7.375" style="3" customWidth="1"/>
+    <col min="19" max="19" width="14.25" style="3" customWidth="1"/>
+    <col min="20" max="22" width="9" style="3"/>
+    <col min="23" max="23" width="2.375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="11" style="3" customWidth="1"/>
+    <col min="25" max="25" width="3.5" style="3" customWidth="1"/>
+    <col min="26" max="26" width="4.625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="4.375" style="3" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="49"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="52"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="55"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A8" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="56">
+        <f>COUNTA(B15:B197)</f>
+        <v>5</v>
+      </c>
+      <c r="U8" s="57"/>
+      <c r="V8" s="58"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T9" s="56">
+        <f>COUNTIF(B15:B91,"Done")</f>
+        <v>5</v>
+      </c>
+      <c r="U9" s="57"/>
+      <c r="V9" s="58"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" s="56">
+        <f>COUNTIF(B15:B91, "NotDone")</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="57"/>
+      <c r="V10" s="58"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" s="59">
+        <f>COUNTIF(N15:N96,"OK")</f>
+        <v>5</v>
+      </c>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T12" s="59">
+        <f>COUNTIF(N15:N96,"NG")</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="43"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="46"/>
+      <c r="P13" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A14" s="60"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="62"/>
+    </row>
+    <row r="15" spans="1:22" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="20">
+        <v>1</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="22">
+        <v>42454</v>
+      </c>
+      <c r="N15" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="34"/>
+      <c r="P15" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="26"/>
+    </row>
+    <row r="16" spans="1:22" ht="156" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="20">
+        <v>2</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="22">
+        <v>42454</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="34"/>
+      <c r="P16" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="26"/>
+    </row>
+    <row r="17" spans="1:22" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="20">
+        <v>3</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="22">
+        <v>42454</v>
+      </c>
+      <c r="N17" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="34"/>
+      <c r="P17" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="26"/>
+    </row>
+    <row r="18" spans="1:22" ht="159" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20">
+        <v>4</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="22">
+        <v>42454</v>
+      </c>
+      <c r="N18" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="34"/>
+      <c r="P18" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="26"/>
+    </row>
+    <row r="19" spans="1:22" ht="159" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20">
+        <v>4</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" s="31"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="22">
+        <v>42454</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O19" s="34"/>
+      <c r="P19" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="A1:V3"/>
+    <mergeCell ref="A4:V4"/>
+    <mergeCell ref="S5:V7"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:V13"/>
+    <mergeCell ref="A14:V14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:V15"/>
+    <mergeCell ref="R17:V17"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:V16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R19:V19"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="R18:V18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P19:Q19"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="N15">
+    <cfRule type="containsText" dxfId="19" priority="35" operator="containsText" text="NG">
+      <formula>NOT(ISERROR(SEARCH("NG",N15)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="36" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",N15)))</formula>
+    </cfRule>
+    <cfRule type="iconSet" priority="37">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15">
+    <cfRule type="iconSet" priority="38">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="containsText" dxfId="17" priority="31" operator="containsText" text="NG">
+      <formula>NOT(ISERROR(SEARCH("NG",N16)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="32" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",N16)))</formula>
+    </cfRule>
+    <cfRule type="iconSet" priority="33">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16">
+    <cfRule type="iconSet" priority="34">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="containsText" dxfId="15" priority="27" operator="containsText" text="NG">
+      <formula>NOT(ISERROR(SEARCH("NG",N17)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="28" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",N17)))</formula>
+    </cfRule>
+    <cfRule type="iconSet" priority="29">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="iconSet" priority="30">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:B17">
+    <cfRule type="iconSet" priority="26">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18">
+    <cfRule type="containsText" dxfId="13" priority="22" operator="containsText" text="NG">
+      <formula>NOT(ISERROR(SEARCH("NG",N18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",N18)))</formula>
+    </cfRule>
+    <cfRule type="iconSet" priority="24">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="iconSet" priority="25">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="iconSet" priority="21">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="NG">
+      <formula>NOT(ISERROR(SEARCH("NG",N19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="OK">
+      <formula>NOT(ISERROR(SEARCH("OK",N19)))</formula>
+    </cfRule>
+    <cfRule type="iconSet" priority="4">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B15:B19">
+      <formula1>DoneStatus</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N15:N19">
+      <formula1>OkNgStatus</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P15:P19">
+      <formula1>Browsers</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H19">
+      <formula1>ErrorStatus</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="63"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A4" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A8" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="65"/>
+      <c r="C8" s="66"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="16"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
+      <c r="A10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A8:C8"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:V19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18:Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="17" width="9" style="3"/>
+    <col min="18" max="18" width="2.625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="3.875" style="3" customWidth="1"/>
+    <col min="20" max="20" width="2" style="3" customWidth="1"/>
+    <col min="21" max="21" width="2.75" style="3" customWidth="1"/>
+    <col min="22" max="22" width="1.625" style="3" customWidth="1"/>
+    <col min="23" max="23" width="2.375" style="3" customWidth="1"/>
+    <col min="24" max="24" width="11" style="3" customWidth="1"/>
+    <col min="25" max="25" width="3.5" style="3" customWidth="1"/>
+    <col min="26" max="26" width="4.625" style="3" customWidth="1"/>
+    <col min="27" max="27" width="4.375" style="3" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+    </row>
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="48"/>
+      <c r="U5" s="48"/>
+      <c r="V5" s="49"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="50"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="52"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="54"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="55"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T8" s="56">
+        <f>COUNTA(B15:B197)</f>
+        <v>4</v>
+      </c>
+      <c r="U8" s="57"/>
+      <c r="V8" s="58"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T9" s="56">
+        <f>COUNTIF(B15:B91,"Done")</f>
+        <v>4</v>
+      </c>
+      <c r="U9" s="57"/>
+      <c r="V9" s="58"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" s="56">
+        <f>COUNTIF(B15:B91, "NotDone")</f>
+        <v>0</v>
+      </c>
+      <c r="U10" s="57"/>
+      <c r="V10" s="58"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T11" s="59">
+        <f>COUNTIF(N15:N96,"OK")</f>
+        <v>4</v>
+      </c>
+      <c r="U11" s="59"/>
+      <c r="V11" s="59"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T12" s="59">
+        <f>COUNTIF(N15:N96,"NG")</f>
+        <v>0</v>
+      </c>
+      <c r="U12" s="59"/>
+      <c r="V12" s="59"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="43"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="46"/>
+      <c r="P13" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+      <c r="A14" s="60"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="62"/>
+    </row>
+    <row r="15" spans="1:22" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="20">
+        <v>1</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="31"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="22">
+        <v>42466</v>
+      </c>
+      <c r="N15" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O15" s="34"/>
+      <c r="P15" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="26"/>
+    </row>
+    <row r="16" spans="1:22" ht="156" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="20">
+        <v>2</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="22">
+        <v>42466</v>
+      </c>
+      <c r="N16" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O16" s="34"/>
+      <c r="P16" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="26"/>
+    </row>
+    <row r="17" spans="1:22" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="20">
+        <v>3</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="31"/>
+      <c r="J17" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17" s="32"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="22">
+        <v>42466</v>
+      </c>
+      <c r="N17" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="34"/>
+      <c r="P17" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="26"/>
+    </row>
+    <row r="18" spans="1:22" ht="159" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="20">
+        <v>4</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="31"/>
+      <c r="J18" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="K18" s="32"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="22">
+        <v>42466</v>
+      </c>
+      <c r="N18" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="O18" s="34"/>
+      <c r="P18" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="26"/>
+    </row>
+    <row r="19" spans="1:22" ht="159" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="45">
@@ -5177,13 +7739,13 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="N15">
-    <cfRule type="containsText" dxfId="29" priority="62" operator="containsText" text="NG">
+    <cfRule type="containsText" dxfId="9" priority="20" operator="containsText" text="NG">
       <formula>NOT(ISERROR(SEARCH("NG",N15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="63" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="8" priority="21" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",N15)))</formula>
     </cfRule>
-    <cfRule type="iconSet" priority="64">
+    <cfRule type="iconSet" priority="22">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -5192,7 +7754,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="iconSet" priority="65">
+    <cfRule type="iconSet" priority="23">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -5201,13 +7763,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="containsText" dxfId="27" priority="29" operator="containsText" text="NG">
+    <cfRule type="containsText" dxfId="7" priority="16" operator="containsText" text="NG">
       <formula>NOT(ISERROR(SEARCH("NG",N16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="30" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="6" priority="17" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",N16)))</formula>
     </cfRule>
-    <cfRule type="iconSet" priority="31">
+    <cfRule type="iconSet" priority="18">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -5216,7 +7778,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16">
-    <cfRule type="iconSet" priority="32">
+    <cfRule type="iconSet" priority="19">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -5225,13 +7787,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="containsText" dxfId="25" priority="25" operator="containsText" text="NG">
+    <cfRule type="containsText" dxfId="5" priority="12" operator="containsText" text="NG">
       <formula>NOT(ISERROR(SEARCH("NG",N17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="26" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",N17)))</formula>
     </cfRule>
-    <cfRule type="iconSet" priority="27">
+    <cfRule type="iconSet" priority="14">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -5240,7 +7802,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17">
-    <cfRule type="iconSet" priority="28">
+    <cfRule type="iconSet" priority="15">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:B17">
+    <cfRule type="iconSet" priority="11">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -5249,13 +7820,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="NG">
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="NG">
       <formula>NOT(ISERROR(SEARCH("NG",N18)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="22" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="2" priority="8" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",N18)))</formula>
     </cfRule>
-    <cfRule type="iconSet" priority="23">
+    <cfRule type="iconSet" priority="9">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -5264,7 +7835,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18">
-    <cfRule type="iconSet" priority="24">
+    <cfRule type="iconSet" priority="10">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18">
+    <cfRule type="iconSet" priority="6">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -5273,13 +7853,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="containsText" dxfId="21" priority="17" operator="containsText" text="NG">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="NG">
       <formula>NOT(ISERROR(SEARCH("NG",N19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="18" operator="containsText" text="OK">
+    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="OK">
       <formula>NOT(ISERROR(SEARCH("OK",N19)))</formula>
     </cfRule>
-    <cfRule type="iconSet" priority="19">
+    <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -5288,7 +7868,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="iconSet" priority="20">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -5297,732 +7886,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B15:B19">
-      <formula1>DoneStatus</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H19">
+      <formula1>ErrorStatus</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P15:P19">
+      <formula1>Browsers</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N15:N19">
       <formula1>OkNgStatus</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P15:P19">
-      <formula1>Browsers</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H19">
-      <formula1>ErrorStatus</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FFFFC000"/>
-  </sheetPr>
-  <dimension ref="A1:V18"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="17" width="9" style="3"/>
-    <col min="18" max="18" width="7.375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="14.25" style="3" customWidth="1"/>
-    <col min="20" max="22" width="9" style="3"/>
-    <col min="23" max="23" width="2.375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="11" style="3" customWidth="1"/>
-    <col min="25" max="25" width="3.5" style="3" customWidth="1"/>
-    <col min="26" max="26" width="4.625" style="3" customWidth="1"/>
-    <col min="27" max="27" width="4.375" style="3" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="34"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="37"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="40"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T8" s="41">
-        <f>COUNTA(B15:B188)</f>
-        <v>4</v>
-      </c>
-      <c r="U8" s="42"/>
-      <c r="V8" s="43"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="T9" s="41">
-        <f>COUNTIF(B15:B82,"Done")</f>
-        <v>4</v>
-      </c>
-      <c r="U9" s="42"/>
-      <c r="V9" s="43"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="T10" s="41">
-        <f>COUNTIF(B15:B82, "NotDone")</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="42"/>
-      <c r="V10" s="43"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T11" s="44">
-        <f>COUNTIF(N15:N87,"OK")</f>
-        <v>4</v>
-      </c>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="T12" s="44">
-        <f>COUNTIF(N15:N87,"NG")</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="58"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N13" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="61"/>
-      <c r="P13" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="51"/>
-    </row>
-    <row r="15" spans="1:22" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20">
-        <v>1</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="22">
-        <v>42454</v>
-      </c>
-      <c r="N15" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="46"/>
-      <c r="P15" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="25"/>
-    </row>
-    <row r="16" spans="1:22" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20">
-        <v>2</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="22">
-        <v>42454</v>
-      </c>
-      <c r="N16" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="O16" s="46"/>
-      <c r="P16" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="25"/>
-    </row>
-    <row r="17" spans="1:22" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20">
-        <v>3</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="22">
-        <v>42454</v>
-      </c>
-      <c r="N17" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="O17" s="46"/>
-      <c r="P17" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="25"/>
-    </row>
-    <row r="18" spans="1:22" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20">
-        <v>4</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="22">
-        <v>42454</v>
-      </c>
-      <c r="N18" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="O18" s="46"/>
-      <c r="P18" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:V18"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:V17"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:V16"/>
-    <mergeCell ref="A14:V14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:V15"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:V13"/>
-    <mergeCell ref="A1:V3"/>
-    <mergeCell ref="A4:V4"/>
-    <mergeCell ref="S5:V7"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="T10:V10"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="N15">
-    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="NG">
-      <formula>NOT(ISERROR(SEARCH("NG",N15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",N15)))</formula>
-    </cfRule>
-    <cfRule type="iconSet" priority="20">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="iconSet" priority="21">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16">
-    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="NG">
-      <formula>NOT(ISERROR(SEARCH("NG",N16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",N16)))</formula>
-    </cfRule>
-    <cfRule type="iconSet" priority="16">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N17">
-    <cfRule type="containsText" dxfId="15" priority="10" operator="containsText" text="NG">
-      <formula>NOT(ISERROR(SEARCH("NG",N17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",N17)))</formula>
-    </cfRule>
-    <cfRule type="iconSet" priority="12">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N18">
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="NG">
-      <formula>NOT(ISERROR(SEARCH("NG",N18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",N18)))</formula>
-    </cfRule>
-    <cfRule type="iconSet" priority="8">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="iconSet" priority="9">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B17">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H18">
-      <formula1>ErrorStatus</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P15:P18">
-      <formula1>Browsers</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N15:N18">
-      <formula1>OkNgStatus</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B15:B18">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B15:B19">
       <formula1>DoneStatus</formula1>
     </dataValidation>
   </dataValidations>
@@ -6030,890 +7903,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:V19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19:I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="17" width="9" style="3"/>
-    <col min="18" max="18" width="7.375" style="3" customWidth="1"/>
-    <col min="19" max="19" width="14.25" style="3" customWidth="1"/>
-    <col min="20" max="22" width="9" style="3"/>
-    <col min="23" max="23" width="2.375" style="3" customWidth="1"/>
-    <col min="24" max="24" width="11" style="3" customWidth="1"/>
-    <col min="25" max="25" width="3.5" style="3" customWidth="1"/>
-    <col min="26" max="26" width="4.625" style="3" customWidth="1"/>
-    <col min="27" max="27" width="4.375" style="3" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
-      <c r="L2" s="53"/>
-      <c r="M2" s="53"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="53"/>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="53"/>
-      <c r="R2" s="53"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="53"/>
-      <c r="L3" s="53"/>
-      <c r="M3" s="53"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="T5" s="33"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="34"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="37"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="39"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="40"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="T8" s="41">
-        <f>COUNTA(B15:B197)</f>
-        <v>5</v>
-      </c>
-      <c r="U8" s="42"/>
-      <c r="V8" s="43"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="T9" s="41">
-        <f>COUNTIF(B15:B91,"Done")</f>
-        <v>5</v>
-      </c>
-      <c r="U9" s="42"/>
-      <c r="V9" s="43"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-      <c r="R10" s="12"/>
-      <c r="S10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="T10" s="41">
-        <f>COUNTIF(B15:B91, "NotDone")</f>
-        <v>0</v>
-      </c>
-      <c r="U10" s="42"/>
-      <c r="V10" s="43"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T11" s="44">
-        <f>COUNTIF(N15:N96,"OK")</f>
-        <v>5</v>
-      </c>
-      <c r="U11" s="44"/>
-      <c r="V11" s="44"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="12"/>
-      <c r="S12" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="T12" s="44">
-        <f>COUNTIF(N15:N96,"NG")</f>
-        <v>0</v>
-      </c>
-      <c r="U12" s="44"/>
-      <c r="V12" s="44"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="56"/>
-      <c r="J13" s="57" t="s">
-        <v>3</v>
-      </c>
-      <c r="K13" s="58"/>
-      <c r="L13" s="59"/>
-      <c r="M13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N13" s="60" t="s">
-        <v>5</v>
-      </c>
-      <c r="O13" s="61"/>
-      <c r="P13" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="S13" s="56"/>
-      <c r="T13" s="56"/>
-      <c r="U13" s="56"/>
-      <c r="V13" s="56"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
-      <c r="A14" s="49"/>
-      <c r="B14" s="50"/>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="51"/>
-    </row>
-    <row r="15" spans="1:22" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20">
-        <v>1</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="22">
-        <v>42454</v>
-      </c>
-      <c r="N15" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="O15" s="46"/>
-      <c r="P15" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="25"/>
-    </row>
-    <row r="16" spans="1:22" ht="156" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20">
-        <v>2</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="22">
-        <v>42454</v>
-      </c>
-      <c r="N16" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="O16" s="46"/>
-      <c r="P16" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="24"/>
-      <c r="V16" s="25"/>
-    </row>
-    <row r="17" spans="1:22" ht="133.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20">
-        <v>3</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="31"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="22">
-        <v>42454</v>
-      </c>
-      <c r="N17" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="O17" s="46"/>
-      <c r="P17" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="24"/>
-      <c r="V17" s="25"/>
-    </row>
-    <row r="18" spans="1:22" ht="159" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20">
-        <v>4</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" s="31"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="22">
-        <v>42454</v>
-      </c>
-      <c r="N18" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="O18" s="46"/>
-      <c r="P18" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="25"/>
-    </row>
-    <row r="19" spans="1:22" ht="159" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20">
-        <v>4</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="I19" s="31"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="22">
-        <v>42454</v>
-      </c>
-      <c r="N19" s="45" t="s">
-        <v>9</v>
-      </c>
-      <c r="O19" s="46"/>
-      <c r="P19" s="47" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="24"/>
-      <c r="V19" s="25"/>
-    </row>
-  </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="R19:V19"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="R18:V18"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:V17"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:V16"/>
-    <mergeCell ref="A14:V14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:V15"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:V13"/>
-    <mergeCell ref="A1:V3"/>
-    <mergeCell ref="A4:V4"/>
-    <mergeCell ref="S5:V7"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="T10:V10"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="N15">
-    <cfRule type="containsText" dxfId="11" priority="35" operator="containsText" text="NG">
-      <formula>NOT(ISERROR(SEARCH("NG",N15)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="36" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",N15)))</formula>
-    </cfRule>
-    <cfRule type="iconSet" priority="37">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15">
-    <cfRule type="iconSet" priority="38">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16">
-    <cfRule type="containsText" dxfId="9" priority="31" operator="containsText" text="NG">
-      <formula>NOT(ISERROR(SEARCH("NG",N16)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="32" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",N16)))</formula>
-    </cfRule>
-    <cfRule type="iconSet" priority="33">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16">
-    <cfRule type="iconSet" priority="34">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N17">
-    <cfRule type="containsText" dxfId="7" priority="27" operator="containsText" text="NG">
-      <formula>NOT(ISERROR(SEARCH("NG",N17)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="28" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",N17)))</formula>
-    </cfRule>
-    <cfRule type="iconSet" priority="29">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17">
-    <cfRule type="iconSet" priority="30">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:B17">
-    <cfRule type="iconSet" priority="26">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N18">
-    <cfRule type="containsText" dxfId="5" priority="22" operator="containsText" text="NG">
-      <formula>NOT(ISERROR(SEARCH("NG",N18)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="23" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",N18)))</formula>
-    </cfRule>
-    <cfRule type="iconSet" priority="24">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="iconSet" priority="25">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18">
-    <cfRule type="iconSet" priority="21">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N19">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="NG">
-      <formula>NOT(ISERROR(SEARCH("NG",N19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="OK">
-      <formula>NOT(ISERROR(SEARCH("OK",N19)))</formula>
-    </cfRule>
-    <cfRule type="iconSet" priority="4">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="iconSet" priority="5">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B15:B19">
-      <formula1>DoneStatus</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N15:N19">
-      <formula1>OkNgStatus</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P15:P19">
-      <formula1>Browsers</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H15:H19">
-      <formula1>ErrorStatus</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="62" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="62"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="65"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A8:C8"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>